--- a/data/TC001_POM_Data.xlsx
+++ b/data/TC001_POM_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="10350" windowHeight="2115"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10440" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -47,6 +46,12 @@
   </si>
   <si>
     <t>Anbarasan</t>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+  </si>
+  <si>
+    <t>123456791</t>
   </si>
 </sst>
 </file>
@@ -82,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,9 +404,10 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +423,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -432,6 +442,9 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
